--- a/data/2014-2013-field-season-survey.xlsx
+++ b/data/2014-2013-field-season-survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandragallegos/Desktop/tfcb-homework01/tfcb-homework01/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DEFE0D5-24CD-584E-B093-AC2AC75B775B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDF7DC7-5D79-FB4F-B37A-247B94F5C4FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1120" windowWidth="25120" windowHeight="15580" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26940" windowHeight="16240" tabRatio="481" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="51">
   <si>
     <t>NA</t>
   </si>
@@ -155,13 +155,40 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2013-07-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2013-07-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2013-08-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2013-10-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2013-11-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2013-11-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2013-12-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2013-12-11</t>
+  </si>
+  <si>
+    <t>Weight g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -184,6 +211,11 @@
     <font>
       <b/>
       <sz val="24"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -713,7 +745,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -757,7 +789,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -781,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
@@ -1390,52 +1422,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E29"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25"/>
   <cols>
-    <col min="1" max="2" width="11.5" style="1"/>
+    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:6" ht="30">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>37</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30">
+      <c r="F3" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1443,307 +1502,361 @@
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>48</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30">
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <v>35</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>33</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17">
+        <v>40</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17">
+        <v>48</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17">
+        <v>29</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="17">
+        <v>37</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="17">
         <v>52</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17">
-        <v>35</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17">
-        <v>44</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="17">
-        <v>7</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="E15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="17">
+        <v>33</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="17">
+        <v>50</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="17">
-        <v>157</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="C18" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="17">
+        <v>117</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="17">
+        <v>126</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="17">
+        <v>132</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="17">
+      <c r="F20" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30">
+      <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="17">
+        <v>113</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="17">
-        <v>36</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="17">
-        <v>218</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="17">
-        <v>7</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30">
-      <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="17">
-        <v>52</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="17">
-        <v>51</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="17">
-        <v>44</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30">
+      <c r="F21" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
@@ -1752,133 +1865,558 @@
         <v>3</v>
       </c>
       <c r="D22" s="17">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="30">
+      <c r="F22" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="17">
+        <v>107</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="17">
+    </row>
+    <row r="24" spans="1:6" ht="30">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="17">
+        <v>115</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="17">
+        <v>40</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30">
+      <c r="A26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="17">
+        <v>45</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30">
+      <c r="A27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="17">
+        <v>41</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="3">
         <v>8</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30">
-      <c r="A24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30">
-      <c r="A25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30">
-      <c r="A26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="17">
-        <v>182</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30">
-      <c r="A27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="17">
-        <v>29</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30">
+    </row>
+    <row r="28" spans="1:6" ht="30">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="17">
+        <v>38</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30">
+      <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <v>44</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30">
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="17">
+        <v>7</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30">
+      <c r="A31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="17">
+        <v>45</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30">
+      <c r="A33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="17">
+        <v>157</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30">
+      <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30">
+      <c r="A35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="17">
+        <v>40</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30">
+      <c r="A36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="17">
+        <v>36</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30">
+      <c r="A37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="17">
+        <v>218</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30">
+      <c r="A38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="17">
+        <v>7</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30">
+      <c r="A39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17">
+        <v>52</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30">
+      <c r="A40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="17">
+        <v>51</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30">
+      <c r="A41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="17">
+        <v>44</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30">
+      <c r="A42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="17">
+        <v>146</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30">
+      <c r="A43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="17">
+        <v>8</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30">
+      <c r="A44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30">
+      <c r="A45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30">
+      <c r="A46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="17">
+        <v>182</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30">
+      <c r="A47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="17">
+        <v>29</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30">
+      <c r="A48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="17">
         <v>115</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30">
-      <c r="A29" s="3" t="s">
+      <c r="E48" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30">
+      <c r="A49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="17">
+      <c r="C49" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="17">
         <v>190</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>41</v>
+      <c r="E49" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
